--- a/thuat toán xếp container.xlsx
+++ b/thuat toán xếp container.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr.SpAm-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr.SpAm-PC\Documents\Git\DAAlgo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
   <si>
     <t>w</t>
   </si>
@@ -422,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O31"/>
+  <dimension ref="B3:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" topLeftCell="E5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -470,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E4">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="F4">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="G4">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="H4">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="I4">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="J4">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -545,79 +546,79 @@
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="C6" s="2">
         <f>L4</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f>J4</f>
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <f>H4</f>
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2">
         <f>F4</f>
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <f>D4</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H6" s="1">
         <f>E4</f>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I6" s="1">
         <f>G4</f>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1">
         <f>I4</f>
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="K6" s="1">
         <f>K4</f>
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="L6" s="1">
         <f>M4</f>
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G7">
         <f>SUM(C6:G6)</f>
-        <v>402</v>
+        <v>187</v>
       </c>
       <c r="H7">
         <f>SUM(H6:L6)</f>
-        <v>387</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="I8">
         <f xml:space="preserve"> G7-H7</f>
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="J8">
         <f>F6-I6</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K8">
         <f>I8-2*J8</f>
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="L8">
         <f>ABS(K8)</f>
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="M8">
         <f>MIN(L8:L11)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <f>MIN(M8,M13,M17,M20)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -638,15 +639,15 @@
       </c>
       <c r="J9">
         <f>E6-J6</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K9">
         <f>K8-2*J9</f>
-        <v>-3</v>
+        <v>38</v>
       </c>
       <c r="L9">
         <f>ABS(K9)</f>
-        <v>3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
@@ -667,15 +668,15 @@
       </c>
       <c r="J10">
         <f>D6-K6</f>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K10">
         <f>K9-2*J10</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <f>ABS(K10)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -696,15 +697,15 @@
       </c>
       <c r="J11">
         <f>C6-L6</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <f>K10-2*J11</f>
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <f>ABS(K11)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -742,23 +743,23 @@
       </c>
       <c r="I13">
         <f xml:space="preserve"> G7-H7</f>
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="J13">
         <f>E6-J6</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K13">
         <f>I13-2*J13</f>
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="L13">
         <f>ABS(K13)</f>
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="M13">
         <f>MIN(L13:L15)</f>
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -779,15 +780,15 @@
       </c>
       <c r="J14">
         <f>D6-K6</f>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K14">
         <f>K13-2*J14</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L14">
         <f>ABS(K14)</f>
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
@@ -808,15 +809,15 @@
       </c>
       <c r="J15">
         <f>C6-L6</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <f>K14-2*J15</f>
-        <v>-5</v>
+        <v>16</v>
       </c>
       <c r="L15">
         <f>ABS(K15)</f>
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
@@ -854,23 +855,23 @@
       </c>
       <c r="I17">
         <f xml:space="preserve"> G7-H7</f>
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="J17">
         <f>D6-K6</f>
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K17">
         <f>I17-2*J17</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="L17">
         <f>ABS(K17)</f>
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="M17">
         <f>MIN(L17:L18)</f>
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
@@ -891,15 +892,15 @@
       </c>
       <c r="J18">
         <f>C6-L6</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <f>K17-2*J18</f>
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="L18">
         <f>ABS(K18)</f>
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.3">
@@ -937,23 +938,23 @@
       </c>
       <c r="I20">
         <f xml:space="preserve"> G7-H7</f>
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="J20">
         <f>C6-L6</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <f>I20-2*J20</f>
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="L20">
         <f>ABS(K20)</f>
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="M20">
         <f>MIN(L20)</f>
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.3">
@@ -993,23 +994,23 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3">
         <f>G6</f>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <f>F6</f>
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="L22" s="3">
-        <f>79</f>
-        <v>79</v>
+        <f>E6</f>
+        <v>28</v>
       </c>
       <c r="M22" s="3">
         <f>D6</f>
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="N22" s="3">
         <f>C6</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="O22" s="5"/>
     </row>
@@ -1066,26 +1067,30 @@
       </c>
       <c r="H24" s="3">
         <f>H6</f>
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="I24" s="3">
         <v>2</v>
       </c>
       <c r="J24" s="3">
-        <f>G7-H7</f>
-        <v>15</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>7</v>
+        <f>MIN(K24:N24)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <f>MIN(ABS(K25),ABS(L25),ABS(M25),ABS(N25))</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <f>MIN(ABS(L26),ABS(M26),ABS(N26))</f>
+        <v>16</v>
+      </c>
+      <c r="M24" s="3">
+        <f>MIN(ABS(M27),ABS(N27))</f>
+        <v>32</v>
+      </c>
+      <c r="N24" s="3">
+        <f>MIN(ABS(N28))</f>
+        <v>70</v>
       </c>
       <c r="O24" s="5"/>
     </row>
@@ -1107,34 +1112,32 @@
       </c>
       <c r="H25" s="3">
         <f>I6</f>
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="I25" s="3">
         <v>4</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>7</v>
+      <c r="J25" s="3">
+        <f>G7-H7</f>
+        <v>70</v>
       </c>
       <c r="K25" s="3">
-        <f>J24-(K22-H25)*2</f>
-        <v>5</v>
+        <f>J25-(K22-H25)*2</f>
+        <v>54</v>
       </c>
       <c r="L25" s="3">
         <f>K25-2*(L22-H26)</f>
-        <v>-3</v>
+        <v>38</v>
       </c>
       <c r="M25" s="3">
         <f>L25-2*(M22-H27)</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N25" s="3">
         <f>M25-2*(N22-H28)</f>
-        <v>-15</v>
-      </c>
-      <c r="O25" s="4">
-        <f>MIN(ABS(K25),ABS(L25),ABS(M25),ABS(N25))</f>
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26">
@@ -1154,7 +1157,7 @@
       </c>
       <c r="H26" s="3">
         <f>J6</f>
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="I26" s="3">
         <v>6</v>
@@ -1162,25 +1165,23 @@
       <c r="J26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>7</v>
+      <c r="K26" s="3">
+        <f>G7-H7</f>
+        <v>70</v>
       </c>
       <c r="L26" s="3">
-        <f>J24-2*(L22-H26)</f>
-        <v>7</v>
+        <f>K26-2*(L22-H26)</f>
+        <v>54</v>
       </c>
       <c r="M26" s="3">
         <f>L26-2*(M22-H27)</f>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N26" s="3">
         <f>M26-2*(N22-H28)</f>
-        <v>-5</v>
-      </c>
-      <c r="O26" s="4">
-        <f>MIN(ABS(L26),ABS(M26),ABS(N26))</f>
-        <v>5</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="O26" s="4"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B27">
@@ -1200,7 +1201,7 @@
       </c>
       <c r="H27" s="3">
         <f>K6</f>
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>8</v>
@@ -1211,21 +1212,19 @@
       <c r="K27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>7</v>
+      <c r="L27" s="3">
+        <f>G7-H7</f>
+        <v>70</v>
       </c>
       <c r="M27" s="3">
-        <f>J24-2*(M22-H27)</f>
-        <v>13</v>
+        <f>L27-2*(M22-H27)</f>
+        <v>32</v>
       </c>
       <c r="N27" s="3">
         <f>M27-2*(N22-H28)</f>
-        <v>3</v>
-      </c>
-      <c r="O27" s="4">
-        <f>MIN(ABS(M27),ABS(N27))</f>
-        <v>3</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B28">
@@ -1245,7 +1244,7 @@
       </c>
       <c r="H28" s="3">
         <f>L6</f>
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3">
         <v>10</v>
@@ -1259,57 +1258,15 @@
       <c r="L28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M28" s="3" t="s">
-        <v>7</v>
+      <c r="M28" s="3">
+        <f>G7-H7</f>
+        <v>70</v>
       </c>
       <c r="N28" s="3">
-        <f>J24-2*(N22-H28)</f>
-        <v>5</v>
-      </c>
-      <c r="O28" s="4">
-        <f>MIN(ABS(N28))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J30">
-        <v>13</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>-5</v>
-      </c>
-      <c r="M30">
-        <v>-3</v>
-      </c>
-      <c r="N30">
-        <v>-13</v>
-      </c>
-      <c r="O30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="J31">
-        <v>15</v>
-      </c>
-      <c r="K31">
-        <v>5</v>
-      </c>
-      <c r="L31">
-        <v>-3</v>
-      </c>
-      <c r="M31">
-        <v>-5</v>
-      </c>
-      <c r="N31">
-        <v>-15</v>
-      </c>
-      <c r="O31">
-        <v>3</v>
-      </c>
+        <f>M28-2*(N22-H28)</f>
+        <v>70</v>
+      </c>
+      <c r="O28" s="4"/>
     </row>
   </sheetData>
   <sortState ref="B9:F28">
@@ -1318,4 +1275,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:M4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>